--- a/Menu Helper/Menu helper.xlsx
+++ b/Menu Helper/Menu helper.xlsx
@@ -4,13 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="17715" windowHeight="6480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="17715" windowHeight="6480" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Motor setting" sheetId="1" r:id="rId1"/>
     <sheet name="Timer Setting" sheetId="3" r:id="rId2"/>
     <sheet name="Station Setting" sheetId="4" r:id="rId3"/>
+    <sheet name="Battery Setting" sheetId="5" r:id="rId4"/>
+    <sheet name="Perimeter Setting" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Battery Setting'!$A:$V</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Perimeter Setting'!$1:$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Station Setting'!$A:$S</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Timer Setting'!$A:$T</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -3340,15 +3348,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>269101</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>307201</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3357,7 +3365,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7889101" y="2514600"/>
+          <a:off x="7927201" y="4152900"/>
           <a:ext cx="6626999" cy="1123950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3398,7 +3406,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
-            <a:t> or Not, If Not the RTC is not read</a:t>
+            <a:t> or Not for All the timer</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="3200"/>
         </a:p>
@@ -3408,16 +3416,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>269101</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>307201</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3428,8 +3436,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4991100" y="2209800"/>
-          <a:ext cx="2898001" cy="866775"/>
+          <a:off x="5791200" y="2171700"/>
+          <a:ext cx="2136001" cy="2543175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3458,15 +3466,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>364350</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>288150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3475,7 +3483,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7984350" y="5276850"/>
+          <a:off x="7908150" y="7105650"/>
           <a:ext cx="6055500" cy="2324100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3538,16 +3546,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>364350</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>288150</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3558,8 +3566,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6248400" y="3924300"/>
-          <a:ext cx="1735950" cy="2514600"/>
+          <a:off x="5524500" y="4991100"/>
+          <a:ext cx="2383650" cy="3276600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3588,15 +3596,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>364350</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>288150</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3607,8 +3615,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5943600" y="5162550"/>
-          <a:ext cx="2040750" cy="1276350"/>
+          <a:off x="5600700" y="6457950"/>
+          <a:ext cx="2307450" cy="1809750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3637,15 +3645,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288150</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>364350</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3656,7 +3664,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6515100" y="6438900"/>
+          <a:off x="6438900" y="8267700"/>
           <a:ext cx="1469250" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3686,15 +3694,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>364350</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>288150</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3705,7 +3713,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6381750" y="6438900"/>
+          <a:off x="6305550" y="8267700"/>
           <a:ext cx="1602600" cy="1809750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3734,16 +3742,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>364350</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>288150</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3753,9 +3761,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6419850" y="6438900"/>
-          <a:ext cx="1564500" cy="3009900"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5467350" y="3733800"/>
+          <a:ext cx="2440800" cy="4533900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4019,7 +4027,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Use or Not</a:t>
+            <a:t>Use or Not this timer</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4993,15 +5001,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>207150</xdr:colOff>
-      <xdr:row>241</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>226200</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5010,7 +5018,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8629650" y="44824650"/>
+          <a:off x="8648700" y="45053250"/>
           <a:ext cx="6055500" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5061,13 +5069,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>246</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>264300</xdr:colOff>
-      <xdr:row>263</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5077,8 +5085,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8686800" y="47034450"/>
-          <a:ext cx="6055500" cy="3086100"/>
+          <a:off x="8686800" y="47129700"/>
+          <a:ext cx="6055500" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5114,7 +5122,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>When you click here if the mower is in Station or Off state the cycle start immediatly (use to set perfecly the distance and verify setting)</a:t>
+            <a:t>Not use </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5176,15 +5184,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>248</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5195,7 +5203,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6019800" y="45405675"/>
+          <a:off x="6038850" y="45634275"/>
           <a:ext cx="2609850" cy="1914525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5226,14 +5234,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>253</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>255</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5243,9 +5251,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6591300" y="48234600"/>
-          <a:ext cx="2095500" cy="342900"/>
+        <a:xfrm flipH="1">
+          <a:off x="6591300" y="47482125"/>
+          <a:ext cx="2095500" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5271,33 +5279,28 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>645300</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>16649</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="ZoneTexte 31"/>
+        <xdr:cNvPr id="57" name="ZoneTexte 56"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8305800" y="3067050"/>
-          <a:ext cx="6055500" cy="1409700"/>
+          <a:off x="7867650" y="285750"/>
+          <a:ext cx="6626999" cy="3448050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5332,44 +5335,73 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Set to YES if the Bumper is pressed when mower hit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
-            <a:t> the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>station</a:t>
+            <a:rPr lang="fr-FR" sz="3200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>When use the Go to Station </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>All</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> timer are deactivate for the next 2 hours.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>To skip this pause : set one of the 5 timer Use from Yes to No and again Yes</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>416700</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>645300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="ZoneTexte 32"/>
+        <xdr:cNvPr id="32" name="ZoneTexte 31"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8077200" y="43357800"/>
-          <a:ext cx="6055500" cy="1162050"/>
+          <a:off x="8305800" y="3067050"/>
+          <a:ext cx="6055500" cy="1409700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5405,11 +5437,16 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>After reverse it's the roll angle</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="3200"/>
+            <a:t>Set to YES if the Bumper is pressed when mower hit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t> the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>station</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5418,25 +5455,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>492900</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>416700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="ZoneTexte 33"/>
+        <xdr:cNvPr id="33" name="ZoneTexte 32"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8153400" y="14249400"/>
-          <a:ext cx="6055500" cy="3124200"/>
+          <a:off x="8077200" y="43357800"/>
+          <a:ext cx="6055500" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5472,28 +5509,75 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>During the tracking the right sonar is used to reduce the speed when something is on the wire,</a:t>
-          </a:r>
-        </a:p>
+            <a:t>After reverse it's the roll angle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>492900</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="ZoneTexte 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="14249400"/>
+          <a:ext cx="6055500" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>see</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
-            <a:t> Robot::checkSonarPeriTrack() </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
-            <a:t>if you want to use other sonar</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="3200"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="3200"/>
+            <a:t>During the tracking the right sonar is used to reduce the speed when something or station is on the wire.</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5824,7 +5908,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>When the mower detect the station it try to gently go forward to this distnce to be sure the contact is OK</a:t>
+            <a:t>When the mower detect the station it try to gently go forward to this distance to be sure the contact is OK</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6026,14 +6110,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>511950</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6042,8 +6126,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8172450" y="18459450"/>
-          <a:ext cx="6055500" cy="952500"/>
+          <a:off x="8172450" y="16840200"/>
+          <a:ext cx="6055500" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6079,8 +6163,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Only for test timer</a:t>
-          </a:r>
+            <a:t>Not</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t> Use actualy</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="fr-FR" sz="3200"/>
@@ -6097,10 +6186,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6110,7 +6199,3696 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="4895850" y="15163800"/>
-          <a:ext cx="3486150" cy="3371850"/>
+          <a:ext cx="3333750" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>134302</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>113850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Image 39" descr="Screenshot_20191013-205729_pfodApp V3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="4514850"/>
+          <a:ext cx="1753552" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>189251</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>151950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Image 38" descr="Screenshot_20191013-205716_pfodApp V3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="361950"/>
+          <a:ext cx="1751351" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>554851</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2326501" y="228600"/>
+          <a:ext cx="1902599" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Actual Battery Voltage</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>554851</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Connecteur droit avec flèche 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1676400" y="371475"/>
+          <a:ext cx="650101" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="ZoneTexte 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400300" y="723900"/>
+          <a:ext cx="2000250" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Manage or not the battery </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="ZoneTexte 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="1143000"/>
+          <a:ext cx="2609850" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Coeff to adjust the Chargeur</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> voltage</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Only visible on Dev Mode</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="ZoneTexte 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257425" y="5648325"/>
+          <a:ext cx="2400300" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Actual Charge Voltage and sense</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="ZoneTexte 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="6257925"/>
+          <a:ext cx="876300" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Not Use</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Connecteur droit avec flèche 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1790700" y="1381125"/>
+          <a:ext cx="381000" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Connecteur droit avec flèche 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1714500" y="885825"/>
+          <a:ext cx="685800" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Connecteur droit avec flèche 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1819275" y="4186237"/>
+          <a:ext cx="276225" cy="938213"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Connecteur droit avec flèche 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1647825" y="2743200"/>
+          <a:ext cx="885825" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Connecteur droit avec flèche 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1562100" y="5176837"/>
+          <a:ext cx="666750" cy="328613"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Connecteur droit avec flèche 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1724025" y="5848350"/>
+          <a:ext cx="552451" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="ZoneTexte 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="6610349"/>
+          <a:ext cx="2247900" cy="561976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>The charging start if the voltage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t> is under this value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Connecteur droit avec flèche 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1676400" y="6724650"/>
+          <a:ext cx="600075" cy="166687"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="ZoneTexte 48"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="1771650"/>
+          <a:ext cx="2533650" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Coeff to adjust the Battery</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> voltage</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Only visible on Dev Mode</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="ZoneTexte 49"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162175" y="2390774"/>
+          <a:ext cx="2819400" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Coeff to adjust the charge</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> sense battery</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Only visible on Dev Mode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="ZoneTexte 61"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2533650" y="2952750"/>
+          <a:ext cx="2114550" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Voltage to return to station</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="ZoneTexte 62"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="3752849"/>
+          <a:ext cx="2857500" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>If the mower is</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> into state OFF or ERROR</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>The PCB is automaticly</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> totaly power OFF after this duration</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Connecteur droit avec flèche 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1685925" y="2162176"/>
+          <a:ext cx="476250" cy="471486"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Connecteur droit avec flèche 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1800225" y="1790700"/>
+          <a:ext cx="342900" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="ZoneTexte 76"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="4819649"/>
+          <a:ext cx="2971800" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>If the battery voltage is under this value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>The PCB is automaticly</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> totaly power OFF </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t>to avoid damage </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Connecteur droit avec flèche 81"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1781175" y="6124576"/>
+          <a:ext cx="1181100" cy="276224"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="ZoneTexte 86"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="7248525"/>
+          <a:ext cx="2286000" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>The charging stop if the charging</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t>sense</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t> is under this value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Connecteur droit avec flèche 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="87" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1533525" y="7200901"/>
+          <a:ext cx="600075" cy="352424"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106578</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>132836</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Image 88" descr="Screenshot_20191027-182225_pfodApp V3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="106578" y="10001250"/>
+          <a:ext cx="1797908" cy="3695700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>184149</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Image 48" descr="Screenshot_20191027-182211_pfodApp V3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="4213581"/>
+          <a:ext cx="1765299" cy="3628669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>202856</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>100008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38097</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Image 27" descr="Screenshot_20191027-182157_pfodApp V3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="202856" y="290508"/>
+          <a:ext cx="1730719" cy="3557589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>538977</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Connecteur droit avec flèche 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1752600" y="209550"/>
+          <a:ext cx="558027" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="ZoneTexte 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171699" y="425450"/>
+          <a:ext cx="2771775" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t>See or Change the Actual Mowing Area</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="ZoneTexte 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="787400"/>
+          <a:ext cx="3549650" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Mag is the realtime result of wire Power,negative if the mower is inside the Area</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Smag is</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> averrage and smooth of the reading </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215899</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="ZoneTexte 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200274" y="4619625"/>
+          <a:ext cx="3248025" cy="498476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>The maximum value you can read when mower is near the wire (Use when tracking)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>412751</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>136524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="ZoneTexte 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2184401" y="5851524"/>
+          <a:ext cx="3086100" cy="644525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>When tracking it's the duration before full</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> roll</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Connecteur droit avec flèche 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1670050" y="1130300"/>
+          <a:ext cx="406400" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Connecteur droit avec flèche 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1758950" y="587375"/>
+          <a:ext cx="412749" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Connecteur droit avec flèche 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1644650" y="2984500"/>
+          <a:ext cx="520700" cy="917575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Connecteur droit avec flèche 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1835150" y="2470150"/>
+          <a:ext cx="292100" cy="815975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Connecteur droit avec flèche 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1511300" y="4295775"/>
+          <a:ext cx="666750" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>511178</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Connecteur droit avec flèche 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1692278" y="4868863"/>
+          <a:ext cx="507996" cy="557212"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="ZoneTexte 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="6870699"/>
+          <a:ext cx="3517899" cy="561976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>While tracking if the mower never</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> change from inside to outside for this duration it's ERROR</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Connecteur droit avec flèche 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1435100" y="6267450"/>
+          <a:ext cx="698500" cy="884237"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>374649</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="ZoneTexte 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2089150" y="1504950"/>
+          <a:ext cx="3517899" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Value use to detect a sender issue or cutting wire</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>If</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> Smag is lower it's ERROR</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>298451</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="ZoneTexte 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="2200274"/>
+          <a:ext cx="3425826" cy="606426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>If the Mag is positive (Mower outside) during this duration it's ERROR</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="ZoneTexte 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2127250" y="2908300"/>
+          <a:ext cx="3486150" cy="755650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>On Big Area the noise into Mag in the middle area can change</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> from positive to negative,This setting allow the mower to skip it (Always &gt; at Mini Smag)</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="ZoneTexte 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2165350" y="3746499"/>
+          <a:ext cx="2101850" cy="311151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Normal Tracking PWM speed </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>565153</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>26987</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Connecteur droit avec flèche 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1746253" y="2235201"/>
+          <a:ext cx="358772" cy="268286"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Connecteur droit avec flèche 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1587500" y="1638301"/>
+          <a:ext cx="501650" cy="161924"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="ZoneTexte 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2178050" y="4152899"/>
+          <a:ext cx="3511550" cy="285751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>When hit obstacle while tracking it's the Arc value</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>412751</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>77787</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Connecteur droit avec flèche 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1797050" y="5842000"/>
+          <a:ext cx="387351" cy="331787"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="ZoneTexte 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2533650" y="10036175"/>
+          <a:ext cx="2286000" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>PID for tracking Change</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> value according to your chassis</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Connecteur droit avec flèche 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1530350" y="10340975"/>
+          <a:ext cx="1003300" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>538977</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>260351</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="ZoneTexte 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2310627" y="66675"/>
+          <a:ext cx="902474" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Use or Not</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Connecteur droit avec flèche 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1428750" y="10340975"/>
+          <a:ext cx="1104900" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Connecteur droit avec flèche 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1371600" y="10340975"/>
+          <a:ext cx="1162050" cy="1412875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="ZoneTexte 75"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="10937875"/>
+          <a:ext cx="2819400" cy="327025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Software reverse left coil Inside Outside</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="ZoneTexte 76"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2317750" y="11430000"/>
+          <a:ext cx="2819400" cy="327025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Software reverse right coil Inside Outside</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="ZoneTexte 77"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="11861800"/>
+          <a:ext cx="2819400" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Read Left and right coil (Not usefull actualy)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Connecteur droit avec flèche 78"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1593850" y="11101388"/>
+          <a:ext cx="673100" cy="1046162"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>163513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Connecteur droit avec flèche 79"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1651000" y="11593513"/>
+          <a:ext cx="666750" cy="795337"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Connecteur droit avec flèche 80"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="78" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1651000" y="12195175"/>
+          <a:ext cx="635000" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="ZoneTexte 101"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2273300" y="12642850"/>
+          <a:ext cx="2819400" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Avoid  the 2 wheels run at opposite direction while tracking for smooth movement</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Connecteur droit avec flèche 102"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="102" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1752600" y="12973050"/>
+          <a:ext cx="520700" cy="3175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6426,7 +10204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E5:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A70" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A73" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -6457,8 +10235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A199" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection sqref="A1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6476,8 +10254,8 @@
   </sheetPr>
   <dimension ref="N29:W43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="P233" sqref="P233"/>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6493,4 +10271,39 @@
   <pageSetup paperSize="9" scale="40" fitToHeight="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Menu Helper/Menu helper.xlsx
+++ b/Menu Helper/Menu helper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="17715" windowHeight="6480" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="17715" windowHeight="6480" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Motor setting" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,11 @@
     <sheet name="Station Setting" sheetId="4" r:id="rId3"/>
     <sheet name="Battery Setting" sheetId="5" r:id="rId4"/>
     <sheet name="Perimeter Setting" sheetId="6" r:id="rId5"/>
+    <sheet name="Mow Setting" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Battery Setting'!$A:$V</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Mow Setting'!$A:$S</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Perimeter Setting'!$1:$80</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Station Setting'!$A:$S</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Timer Setting'!$A:$T</definedName>
@@ -94,19 +96,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>454800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>702450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1712100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>588150</xdr:rowOff>
+      <xdr:colOff>280951</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>123786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>290476</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>152361</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2" descr="Screenshot_2017-11-18-13-51-26.png"/>
+        <xdr:cNvPr id="4" name="Image 3" descr="Screenshot_2017-11-18-13-51-35.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -119,8 +121,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="454800" y="702450"/>
-          <a:ext cx="6858000" cy="12192000"/>
+          <a:off x="280951" y="12506286"/>
+          <a:ext cx="6867525" cy="12030075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -132,19 +134,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>519076</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>642899</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1814476</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>528599</xdr:rowOff>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>149488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3" descr="Screenshot_2017-11-18-13-51-35.png"/>
+        <xdr:cNvPr id="73" name="Image 72" descr="Screenshot_20200822-212314_pfodApp V3.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -157,8 +159,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="519076" y="13501649"/>
-          <a:ext cx="6867525" cy="12030075"/>
+          <a:off x="309562" y="49869988"/>
+          <a:ext cx="6738938" cy="13852261"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -170,19 +172,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>521437</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>645262</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1778737</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>492862</xdr:rowOff>
+      <xdr:colOff>288113</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>259538</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>26175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4" descr="Screenshot_2017-11-18-13-51-41.png"/>
+        <xdr:cNvPr id="3" name="Image 2" descr="Screenshot_2017-11-18-13-51-26.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -195,8 +197,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="521437" y="26362762"/>
-          <a:ext cx="6829425" cy="11991975"/>
+          <a:off x="288113" y="188100"/>
+          <a:ext cx="6829425" cy="12030075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -208,19 +210,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>566662</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>76125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1776337</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>638100</xdr:rowOff>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>69001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280988</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>59476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 5" descr="Screenshot_2017-11-18-13-51-48.png"/>
+        <xdr:cNvPr id="5" name="Image 4" descr="Screenshot_2017-11-18-13-51-41.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -233,8 +235,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="566662" y="39366750"/>
-          <a:ext cx="6781800" cy="11991975"/>
+          <a:off x="309563" y="25024501"/>
+          <a:ext cx="6829425" cy="11991975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -246,19 +248,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>530925</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>519112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1740600</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>452437</xdr:rowOff>
+      <xdr:colOff>328537</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>123750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>252337</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>114225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 6" descr="Screenshot_2017-11-18-13-51-53.png"/>
+        <xdr:cNvPr id="6" name="Image 5" descr="Screenshot_2017-11-18-13-51-48.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -271,8 +273,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="530925" y="51954112"/>
-          <a:ext cx="6781800" cy="12077700"/>
+          <a:off x="328537" y="37652250"/>
+          <a:ext cx="6781800" cy="11991975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -283,16 +285,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1619251</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>214313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9906000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>214313</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>652463</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -301,8 +303,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9048751" y="1643063"/>
-          <a:ext cx="10144124" cy="714375"/>
+          <a:off x="7510463" y="1685925"/>
+          <a:ext cx="6562724" cy="1100137"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -352,16 +354,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>738190</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>571501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1619251</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>140494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>652463</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -372,8 +374,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6310315" y="2000251"/>
-          <a:ext cx="2738436" cy="904874"/>
+          <a:off x="6310313" y="2235994"/>
+          <a:ext cx="1200150" cy="264319"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -401,16 +403,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>666750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7620000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -419,8 +421,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8524875" y="2809875"/>
-          <a:ext cx="8382000" cy="881062"/>
+          <a:off x="7486650" y="3167064"/>
+          <a:ext cx="6610350" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -456,7 +458,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Power  of left and Right Motor in Watt</a:t>
+            <a:t>Actual Power  of left and Right Motor in Watt</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -465,16 +467,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>928688</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>6905626</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -483,8 +485,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8358188" y="4405313"/>
-          <a:ext cx="7834313" cy="1404938"/>
+          <a:off x="7458076" y="4524375"/>
+          <a:ext cx="6710362" cy="1928813"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -520,7 +522,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Electrical intensity of Motor in Ma Adjust with    Motor</a:t>
+            <a:t>Electrical intensity of Motor in Ma Adjust with Motor</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
@@ -534,16 +536,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>619124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8143875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>666749</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -552,8 +554,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8239125" y="6334124"/>
-          <a:ext cx="9191625" cy="2905125"/>
+          <a:off x="7462837" y="6691311"/>
+          <a:ext cx="6848475" cy="3619502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -599,7 +601,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
-            <a:t> find the best Value, put the mower in Manual and forward ,Brake the mower until the wheels slip or stop and read max value.</a:t>
+            <a:t> find the best Value, put the mower in Manual and forward ,Brake the mower until the wheels slip or stop,  and read max value.</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="3200"/>
         </a:p>
@@ -609,16 +611,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>857251</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>690563</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4714876</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>700088</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -627,8 +629,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8286751" y="9977438"/>
-          <a:ext cx="5715000" cy="762000"/>
+          <a:off x="7558088" y="10663238"/>
+          <a:ext cx="6610350" cy="671513"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -663,12 +665,8 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>The wheels</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
-            <a:t> speed in RPM</a:t>
+            <a:t>Actual speed in RPM</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="3200"/>
         </a:p>
@@ -678,16 +676,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8120062</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -696,8 +694,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8239125" y="11430000"/>
-          <a:ext cx="9167812" cy="1762125"/>
+          <a:off x="7581899" y="11549062"/>
+          <a:ext cx="6586539" cy="2262188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -782,8 +780,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>In the futur firmware it's not use do not change for the moment or adjust with Speed in PWM</a:t>
-          </a:r>
+            <a:t>Adjust with PWM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t>, In manual check that PWM is not at max value on the 2 wheel ( See Odometry setting)</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -791,16 +794,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>392906</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>80964</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -811,8 +814,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6429375" y="3250406"/>
-          <a:ext cx="2095500" cy="1083469"/>
+          <a:off x="6176964" y="3738564"/>
+          <a:ext cx="1309686" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -840,16 +843,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>833438</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>107157</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>928688</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -859,9 +862,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6405563" y="5107782"/>
-          <a:ext cx="1952625" cy="845343"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6429376" y="5429252"/>
+          <a:ext cx="1028700" cy="59530"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -889,16 +892,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>642937</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47627</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -909,8 +912,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5786438" y="7239000"/>
-          <a:ext cx="2452687" cy="547687"/>
+          <a:off x="6143627" y="6977064"/>
+          <a:ext cx="1319210" cy="1523998"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -938,16 +941,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>857251</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>357188</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>700088</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>140495</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -958,8 +961,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5524500" y="8572500"/>
-          <a:ext cx="2762251" cy="1785938"/>
+          <a:off x="5476875" y="8143875"/>
+          <a:ext cx="2081213" cy="2855120"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -987,16 +990,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>642938</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>185742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1007,8 +1010,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5715000" y="9929813"/>
-          <a:ext cx="2524125" cy="2381250"/>
+          <a:off x="5643563" y="9329742"/>
+          <a:ext cx="1938336" cy="3350414"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1036,16 +1039,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1214438</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>238126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8858251</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>690563</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>719139</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>166690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1054,8 +1057,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8643938" y="14525626"/>
-          <a:ext cx="9501188" cy="1166812"/>
+          <a:off x="7577139" y="14073190"/>
+          <a:ext cx="6448424" cy="1976436"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1120,16 +1123,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>11477625</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>642938</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>700086</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1138,8 +1141,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8477250" y="18097500"/>
-          <a:ext cx="12287250" cy="1119188"/>
+          <a:off x="7558086" y="17692687"/>
+          <a:ext cx="6181726" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1182,7 +1185,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>During this time the Power of motor is not manage help when</a:t>
+            <a:t>During this duration the Power of motor is not manage help when</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200" baseline="0">
@@ -1210,16 +1213,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1404937</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>595311</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9715500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657223</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>52385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1228,8 +1231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8834437" y="20597811"/>
-          <a:ext cx="10167938" cy="1714501"/>
+          <a:off x="7515223" y="19483385"/>
+          <a:ext cx="6438901" cy="1852615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1297,16 +1300,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1509712</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>700088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8224837</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1315,8 +1318,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8939212" y="27846338"/>
-          <a:ext cx="8572500" cy="2395537"/>
+          <a:off x="7300913" y="25384125"/>
+          <a:ext cx="6867525" cy="3595687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1413,16 +1416,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1257301</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7972426</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>747712</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>66673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1431,8 +1434,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8686801" y="16544924"/>
-          <a:ext cx="8572500" cy="647701"/>
+          <a:off x="7605712" y="16259173"/>
+          <a:ext cx="6372225" cy="1123951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1484,15 +1487,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1528763</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8243888</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1502,8 +1505,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8958263" y="23722011"/>
-          <a:ext cx="8572500" cy="1400177"/>
+          <a:off x="7458075" y="21602699"/>
+          <a:ext cx="6400800" cy="2900364"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1634,16 +1637,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>107157</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1214438</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>719139</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>11908</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1653,9 +1656,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6762750" y="15109032"/>
-          <a:ext cx="1881188" cy="607218"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6262689" y="14835188"/>
+          <a:ext cx="1314450" cy="226220"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1683,16 +1686,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>438150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1257301</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>666750</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>747714</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>747712</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1702,9 +1705,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6762750" y="16868775"/>
-          <a:ext cx="1924051" cy="228600"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6843714" y="16335375"/>
+          <a:ext cx="761998" cy="485774"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1732,16 +1735,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1071563</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>261938</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695326</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>161928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>700086</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1751,9 +1754,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6643688" y="18657094"/>
-          <a:ext cx="1833562" cy="178594"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6791326" y="17878428"/>
+          <a:ext cx="766760" cy="600072"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1781,16 +1784,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>404813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1404937</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657223</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>26193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1801,8 +1804,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7096125" y="20407313"/>
-          <a:ext cx="1738312" cy="1047749"/>
+          <a:off x="6548438" y="19264313"/>
+          <a:ext cx="966785" cy="1145380"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1830,16 +1833,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1309688</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1404937</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>452438</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>26193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657223</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1850,8 +1853,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6881813" y="21455062"/>
-          <a:ext cx="1952624" cy="428626"/>
+          <a:off x="6334125" y="20409693"/>
+          <a:ext cx="1181098" cy="473870"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1879,16 +1882,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>642938</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>500063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1528763</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>2381</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1899,8 +1902,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6215063" y="24074438"/>
-          <a:ext cx="2743200" cy="347662"/>
+          <a:off x="6691313" y="22383751"/>
+          <a:ext cx="766762" cy="669130"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1928,16 +1931,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1523999</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>666751</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8929687</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>666751</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>166689</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1946,8 +1949,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953499" y="32099251"/>
-          <a:ext cx="9263063" cy="1428750"/>
+          <a:off x="7391399" y="29289377"/>
+          <a:ext cx="6705601" cy="2309812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1989,7 +1992,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Use to go in straigh line with ODOmetry when IMU is not use)</a:t>
+            <a:t>Use to go in straigh line with ODOmetry (when IMU is not used or in Manual mode)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1998,16 +2001,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1724024</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>319087</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9129712</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>319087</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2016,8 +2019,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9153524" y="34609087"/>
-          <a:ext cx="9263063" cy="1428750"/>
+          <a:off x="7362826" y="32027812"/>
+          <a:ext cx="6805612" cy="1357314"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2053,7 +2056,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Test of motor (remove in the futur version because there is a new menu for that)</a:t>
+            <a:t>Test of motor (remove in the futur version : there is a new menu for that)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2062,16 +2065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1090611</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>585785</xdr:colOff>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8496299</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2080,8 +2083,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8520111" y="42262424"/>
-          <a:ext cx="9263063" cy="1428750"/>
+          <a:off x="7443785" y="38404799"/>
+          <a:ext cx="6438902" cy="1552578"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2126,16 +2129,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>833438</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>469107</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1509712</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>309563</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2146,8 +2149,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6405563" y="29044107"/>
-          <a:ext cx="2533649" cy="554831"/>
+          <a:off x="6529389" y="27181969"/>
+          <a:ext cx="771524" cy="269082"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2175,16 +2178,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1523999</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>666751</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>154783</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2195,8 +2198,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6024563" y="30384750"/>
-          <a:ext cx="2928936" cy="2428876"/>
+          <a:off x="4929188" y="28979813"/>
+          <a:ext cx="2462211" cy="1464470"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2224,16 +2227,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1523999</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>666751</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>154783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2243,9 +2246,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5667375" y="32766000"/>
-          <a:ext cx="3286124" cy="47626"/>
+        <a:xfrm flipH="1">
+          <a:off x="5024438" y="30444283"/>
+          <a:ext cx="2366961" cy="130967"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2273,16 +2276,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>666751</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1523999</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>154783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2293,8 +2296,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5929313" y="32813626"/>
-          <a:ext cx="3024186" cy="833437"/>
+          <a:off x="5143500" y="30444283"/>
+          <a:ext cx="2247899" cy="1607342"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2322,16 +2325,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>309563</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1724024</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>319087</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2341,9 +2344,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5810250" y="35313938"/>
-          <a:ext cx="3343274" cy="9524"/>
+        <a:xfrm flipH="1">
+          <a:off x="5524500" y="32706469"/>
+          <a:ext cx="1838326" cy="1178719"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2371,26 +2374,75 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1195387</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>266699</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8601075</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>266699</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>738187</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>585785</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Connecteur droit avec flèche 64"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6072187" y="39181088"/>
+          <a:ext cx="1371598" cy="823913"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600077</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="ZoneTexte 62"/>
+        <xdr:cNvPr id="72" name="ZoneTexte 71"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8624887" y="45986699"/>
-          <a:ext cx="9263063" cy="1428750"/>
+          <a:off x="7458077" y="42691051"/>
+          <a:ext cx="6353174" cy="790574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2426,7 +2478,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Swap is use to reverse a motor but BETTER TO INVERT THE POLARITY ON MOTOR</a:t>
+            <a:t>I need to verify but not use</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2435,28 +2487,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1090611</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600077</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Connecteur droit avec flèche 64"/>
+        <xdr:cNvPr id="74" name="Connecteur droit avec flèche 73"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="52" idx="1"/>
+          <a:stCxn id="72" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6048375" y="42338625"/>
-          <a:ext cx="2471736" cy="638174"/>
+        <a:xfrm flipH="1">
+          <a:off x="5500688" y="43086338"/>
+          <a:ext cx="1957389" cy="442912"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2484,173 +2536,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1090611</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="Connecteur droit avec flèche 66"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="52" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5953125" y="42976799"/>
-          <a:ext cx="2566986" cy="790576"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>452438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1195387</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>266699</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="Connecteur droit avec flèche 68"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="63" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6572250" y="46172438"/>
-          <a:ext cx="2052637" cy="528636"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>266699</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1195387</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>690563</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="Connecteur droit avec flèche 70"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="63" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6762750" y="46701074"/>
-          <a:ext cx="1862137" cy="423864"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>833438</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>309563</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8239126</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>285751</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="ZoneTexte 71"/>
+        <xdr:cNvPr id="75" name="ZoneTexte 74"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8262938" y="44600813"/>
-          <a:ext cx="9263063" cy="690563"/>
+          <a:off x="7429500" y="44029311"/>
+          <a:ext cx="8167688" cy="1809751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2686,7 +2591,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>I need to verify</a:t>
+            <a:t>Swap is used to reverse a motor but BETTER TO INVERT THE WIRE DIRECTLY ON MOTOR</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2695,75 +2600,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>547688</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>654845</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>833438</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Connecteur droit avec flèche 73"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="72" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6119813" y="44946095"/>
-          <a:ext cx="2143125" cy="178593"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8120063</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="ZoneTexte 74"/>
+        <xdr:cNvPr id="76" name="ZoneTexte 75"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8143875" y="53387625"/>
-          <a:ext cx="9263063" cy="1428750"/>
+          <a:off x="7334250" y="54768748"/>
+          <a:ext cx="10239376" cy="1500189"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2799,7 +2655,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Swap is used to reverse a motor but BETTER TO INVERT THE WIRE DIRECTLY ON MOTOR</a:t>
+            <a:t>Minimum PWM for the motor to turn on small slope ,VERY IMPORTANT to avoid long pause during mowing</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2808,26 +2664,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8120063</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="ZoneTexte 75"/>
+        <xdr:cNvPr id="77" name="ZoneTexte 76"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8143875" y="59340750"/>
-          <a:ext cx="9263063" cy="1428750"/>
+          <a:off x="7362825" y="51244501"/>
+          <a:ext cx="10210799" cy="3024187"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2863,8 +2719,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Minimum PWM for the motor to turn on small slope ,VERY IMPORTANT to avoid long pause during mowing</a:t>
-          </a:r>
+            <a:t>Offset to help the 2 motor to go at exactly the same speed when same PWM,easy to check into test motor 5 turn the 2 motors need to stop at the same time,Into forward and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t> reverse Mode,</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2872,26 +2733,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>985838</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>342899</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8391526</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514348</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>128582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>305</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="ZoneTexte 76"/>
+        <xdr:cNvPr id="78" name="ZoneTexte 77"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8415338" y="56064149"/>
-          <a:ext cx="9263063" cy="2609851"/>
+          <a:off x="7372348" y="56707082"/>
+          <a:ext cx="10248902" cy="1490668"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2927,11 +2788,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Offset to help the 2 motor to go at exactly the same speed when same PWM,easy to check into test motor 5 turn the 2 motors need to stop at the same time,Into forward and</a:t>
+            <a:t>Maximum PWM Avoid mower go too fast when adding</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
-            <a:t> reverse Mode,</a:t>
+            <a:t> the PID (need to be smaller than MaxPWM)</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="3200"/>
         </a:p>
@@ -2941,26 +2802,320 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>842962</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8248650</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628652</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Connecteur droit avec flèche 79"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6724652" y="44219813"/>
+          <a:ext cx="704848" cy="714374"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Connecteur droit avec flèche 81"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6477000" y="44934187"/>
+          <a:ext cx="952500" cy="642938"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>178595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Connecteur droit avec flèche 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5619750" y="52756595"/>
+          <a:ext cx="1743075" cy="1559718"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>178595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Connecteur droit avec flèche 85"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5524500" y="52756595"/>
+          <a:ext cx="1838325" cy="3559968"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119064</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Connecteur droit avec flèche 87"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6215064" y="55518843"/>
+          <a:ext cx="1119186" cy="2297907"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>111916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514348</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Connecteur droit avec flèche 89"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="78" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6429375" y="57452416"/>
+          <a:ext cx="942973" cy="2007397"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="ZoneTexte 77"/>
+        <xdr:cNvPr id="79" name="ZoneTexte 78"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8272462" y="61469587"/>
-          <a:ext cx="9263063" cy="1428750"/>
+          <a:off x="7458075" y="58459688"/>
+          <a:ext cx="10091737" cy="3214688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2996,13 +3151,18 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Maximum PWM Avoid mower go too fast when adding</a:t>
+            <a:t>Warning MOWER MOVE when click</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>To</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
-            <a:t> the PID (need to be smaller than MaxPWM)</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="3200"/>
+            <a:t> do once into normal grass to help the firmware to compute all the state duration and avoid wait at the end of state on slope or big grass</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3010,28 +3170,92 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>428625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="ZoneTexte 168"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477125" y="40390762"/>
+          <a:ext cx="6510337" cy="1781176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>Use to perfectly set the intensity of Right motor (Visible only in DEV mode) </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723901</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>176214</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="Connecteur droit avec flèche 79"/>
+        <xdr:cNvPr id="170" name="Connecteur droit avec flèche 169"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="75" idx="1"/>
+          <a:stCxn id="169" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6810375" y="54006750"/>
-          <a:ext cx="1333500" cy="95250"/>
+        <a:xfrm flipH="1">
+          <a:off x="6057901" y="41281350"/>
+          <a:ext cx="1419224" cy="423864"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3059,224 +3283,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1023938</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>404813</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="Connecteur droit avec flèche 81"/>
+        <xdr:cNvPr id="191" name="Connecteur droit avec flèche 190"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="75" idx="1"/>
+          <a:stCxn id="79" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6596063" y="54102000"/>
-          <a:ext cx="1547812" cy="595313"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>547688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>985838</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="Connecteur droit avec flèche 83"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="77" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6238875" y="56268938"/>
-          <a:ext cx="2176463" cy="1100137"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>985838</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="86" name="Connecteur droit avec flèche 85"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="77" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5905500" y="57369075"/>
-          <a:ext cx="2509838" cy="971550"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="Connecteur droit avec flèche 87"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="76" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6619875" y="60055125"/>
-          <a:ext cx="1524000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>842962</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="Connecteur droit avec flèche 89"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="78" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5524500" y="62183962"/>
-          <a:ext cx="2747962" cy="133351"/>
+          <a:off x="5953125" y="60067032"/>
+          <a:ext cx="1504950" cy="1035843"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5380,225 +5408,22 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>645300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="ZoneTexte 31"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8305800" y="3067050"/>
-          <a:ext cx="6055500" cy="1409700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Set to YES if the Bumper is pressed when mower hit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
-            <a:t> the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>station</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>416700</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="ZoneTexte 32"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8077200" y="43357800"/>
-          <a:ext cx="6055500" cy="1162050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>After reverse it's the roll angle</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="3200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>492900</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="ZoneTexte 33"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8153400" y="14249400"/>
-          <a:ext cx="6055500" cy="1809750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>During the tracking the right sonar is used to reduce the speed when something or station is on the wire.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:colOff>155490</xdr:colOff>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Image 37" descr="Screenshot_20190531-085634_pfodApp V3.jpg"/>
+        <xdr:cNvPr id="18" name="Image 17" descr="Screenshot_20200822-212452_pfodApp V3.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5611,8 +5436,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="37833300"/>
-          <a:ext cx="7715250" cy="16173450"/>
+          <a:off x="0" y="1257300"/>
+          <a:ext cx="7775490" cy="15982950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5623,73 +5448,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Connecteur droit avec flèche 34"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4591050" y="40271700"/>
-          <a:ext cx="3924300" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>645300</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>531000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="ZoneTexte 41"/>
+        <xdr:cNvPr id="32" name="ZoneTexte 31"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191500" y="41433750"/>
-          <a:ext cx="6055500" cy="1162050"/>
+          <a:off x="8305800" y="3067050"/>
+          <a:ext cx="6055500" cy="1409700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5725,11 +5503,16 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>When leave the station with timer it's rev distance</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="3200"/>
+            <a:t>Set to YES if the Bumper is pressed when mower hit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t> the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>station</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5737,74 +5520,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Connecteur droit avec flèche 35"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="33" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4991100" y="43853100"/>
-          <a:ext cx="3086100" cy="85725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>473850</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>492900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="ZoneTexte 44"/>
+        <xdr:cNvPr id="33" name="ZoneTexte 32"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8134350" y="45072300"/>
+          <a:off x="8153400" y="8991600"/>
           <a:ext cx="6055500" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5841,7 +5575,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>After Roll it's the straight line before arc circle to avoid station</a:t>
+            <a:t>After reverse it's the roll angle</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5854,25 +5588,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>531000</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>492900</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="ZoneTexte 46"/>
+        <xdr:cNvPr id="34" name="ZoneTexte 33"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191500" y="10572750"/>
-          <a:ext cx="6055500" cy="3124200"/>
+          <a:off x="8153400" y="14249400"/>
+          <a:ext cx="6055500" cy="1809750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5908,11 +5642,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>When the mower detect the station it try to gently go forward to this distance to be sure the contact is OK</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="3200"/>
+            <a:t>During the tracking the right sonar is used to reduce the speed when something or station is on the wire.</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5921,25 +5652,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Connecteur droit avec flèche 48"/>
+        <xdr:cNvPr id="35" name="Connecteur droit avec flèche 34"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5181600" y="6019800"/>
-          <a:ext cx="3086100" cy="85725"/>
+        <a:xfrm flipH="1">
+          <a:off x="4591050" y="40271700"/>
+          <a:ext cx="3924300" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5967,167 +5698,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Connecteur droit avec flèche 49"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5181600" y="9620250"/>
-          <a:ext cx="3086100" cy="85725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Connecteur droit avec flèche 50"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5143500" y="10934700"/>
-          <a:ext cx="3086100" cy="85725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>133352</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Connecteur droit avec flèche 51"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5067300" y="13011152"/>
-          <a:ext cx="3257550" cy="1733548"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>511950</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>435750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="ZoneTexte 55"/>
+        <xdr:cNvPr id="42" name="ZoneTexte 41"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8172450" y="16840200"/>
-          <a:ext cx="6055500" cy="762000"/>
+          <a:off x="8096250" y="7620000"/>
+          <a:ext cx="6055500" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6163,13 +5753,16 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Not</a:t>
+            <a:t>When leave the station it's reverse</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
-            <a:t> Use actualy</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="3200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>distance</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="fr-FR" sz="3200"/>
@@ -6181,25 +5774,471 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Connecteur droit avec flèche 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5067300" y="9486900"/>
+          <a:ext cx="3086100" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>492900</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="ZoneTexte 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="10287000"/>
+          <a:ext cx="6055500" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>After Roll it's the straight line before arc circle to avoid station</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>492900</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="ZoneTexte 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="11544300"/>
+          <a:ext cx="6055500" cy="2457450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>When the mower detect the station it try to gently go forward to this distance to be sure the contact is OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Connecteur droit avec flèche 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5505450" y="7658100"/>
+          <a:ext cx="2590800" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Connecteur droit avec flèche 49"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4152900" y="10648950"/>
+          <a:ext cx="4000500" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Connecteur droit avec flèche 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3981450" y="12773025"/>
+          <a:ext cx="4171950" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Connecteur droit avec flèche 51"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4591050" y="14401800"/>
+          <a:ext cx="3733800" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>569100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="ZoneTexte 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="4972050"/>
+          <a:ext cx="6055500" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>At the end of the charging state the mower reboot</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="57" name="Connecteur droit avec flèche 56"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4895850" y="15163800"/>
-          <a:ext cx="3333750" cy="1714500"/>
+        <a:xfrm flipH="1">
+          <a:off x="5448300" y="5819775"/>
+          <a:ext cx="2781300" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9912,6 +9951,1290 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>136954</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Image 37" descr="Screenshot_20200822-212216_pfodApp V3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17526000"/>
+          <a:ext cx="7756954" cy="15944850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127686</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 16" descr="Screenshot_20200822-212207_pfodApp V3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="7747686" cy="15925800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>550050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8210550" y="1543050"/>
+          <a:ext cx="6055500" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>Set to YES during all test to avoid motor start</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>435750</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="ZoneTexte 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8096250" y="18478500"/>
+          <a:ext cx="6055500" cy="3867150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>The max and min speed</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t> of the mow motor,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t>Speed is automaticly adjust between min and max according the high of the grass,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t>Reduce noise and increase mowing duration</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>531000</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="ZoneTexte 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191500" y="25031700"/>
+          <a:ext cx="6055500" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>Result</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t> of the compute speed coeff</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Connecteur droit avec flèche 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6705600" y="2247900"/>
+          <a:ext cx="1504950" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>531000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="ZoneTexte 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191500" y="4552950"/>
+          <a:ext cx="6055500" cy="3867150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>Max Power,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>At</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t> 80% the mow spirale start,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t>At 100% during 5 Seconds the motor stop for one minute,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t>Error can occur by motor driver itself if power realy too high,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t>Reset the mower to reinit the error</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Connecteur droit avec flèche 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6629400" y="19678650"/>
+          <a:ext cx="1466850" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>550050</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="ZoneTexte 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8210550" y="23241000"/>
+          <a:ext cx="6055500" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Use to perfectly set the intensity of  motor (Visible only in DEV mode) </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>550050</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="ZoneTexte 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8210550" y="26136600"/>
+          <a:ext cx="6055500" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>The actual motor Speed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>304803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Connecteur droit avec flèche 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5600700" y="5638803"/>
+          <a:ext cx="2590800" cy="847722"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Connecteur droit avec flèche 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6877050" y="23412450"/>
+          <a:ext cx="1333500" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Connecteur droit avec flèche 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6210300" y="26193751"/>
+          <a:ext cx="2000250" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>114302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Connecteur droit avec flèche 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6496050" y="24993602"/>
+          <a:ext cx="1695450" cy="438148"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="ZoneTexte 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8210550" y="3162300"/>
+          <a:ext cx="6096000" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>Actual Mow Motor power and current</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Connecteur droit avec flèche 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6419850" y="3581401"/>
+          <a:ext cx="1790700" cy="142874"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Connecteur droit avec flèche 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6419850" y="3724275"/>
+          <a:ext cx="1790700" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Connecteur droit avec flèche 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6629400" y="20412075"/>
+          <a:ext cx="1466850" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>473850</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="ZoneTexte 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8134350" y="27260550"/>
+          <a:ext cx="6055500" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>Auto</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t> mow pattern change when mowing to avoid trackon the grass,swap between random and lane</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Connecteur droit avec flèche 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6019800" y="27851100"/>
+          <a:ext cx="2114550" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Connecteur droit avec flèche 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5543550" y="29813250"/>
+          <a:ext cx="2609850" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>492900</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="ZoneTexte 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="30060900"/>
+          <a:ext cx="6055500" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>To test the motor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10204,29 +11527,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E5:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" topLeftCell="A169" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="T326" sqref="T326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="57" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="28" style="2"/>
-    <col min="6" max="6" width="243.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="214.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="2"/>
+    <col min="6" max="6" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:6" ht="57" customHeight="1">
+    <row r="5" spans="6:6" ht="15" customHeight="1">
       <c r="F5" s="3"/>
     </row>
-    <row r="29" spans="6:6" ht="57" customHeight="1">
+    <row r="29" spans="6:6" ht="15" customHeight="1">
       <c r="F29"/>
     </row>
-    <row r="43" spans="6:6" ht="57" customHeight="1">
+    <row r="43" spans="6:6" ht="15" customHeight="1">
       <c r="F43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -10255,7 +11577,7 @@
   <dimension ref="N29:W43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10268,7 +11590,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="40" fitToHeight="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" fitToHeight="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -10293,7 +11615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -10306,4 +11628,30 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="N29:W43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="N162" sqref="N162"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="29" spans="14:14" ht="42">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="43" spans="23:23" ht="42">
+      <c r="W43" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="40" fitToHeight="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Menu Helper/Menu helper.xlsx
+++ b/Menu Helper/Menu helper.xlsx
@@ -4,13 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="17715" windowHeight="6480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="17715" windowHeight="6480" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Motor setting" sheetId="1" r:id="rId1"/>
     <sheet name="Timer Setting" sheetId="3" r:id="rId2"/>
     <sheet name="Station Setting" sheetId="4" r:id="rId3"/>
+    <sheet name="Battery Setting" sheetId="5" r:id="rId4"/>
+    <sheet name="Perimeter Setting" sheetId="6" r:id="rId5"/>
+    <sheet name="Mow Setting" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Battery Setting'!$A:$V</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Mow Setting'!$A:$S</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Perimeter Setting'!$1:$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Station Setting'!$A:$S</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Timer Setting'!$A:$T</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -86,19 +96,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>454800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>702450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1712100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>588150</xdr:rowOff>
+      <xdr:colOff>280951</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>123786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>290476</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>152361</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2" descr="Screenshot_2017-11-18-13-51-26.png"/>
+        <xdr:cNvPr id="4" name="Image 3" descr="Screenshot_2017-11-18-13-51-35.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -111,8 +121,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="454800" y="702450"/>
-          <a:ext cx="6858000" cy="12192000"/>
+          <a:off x="280951" y="12506286"/>
+          <a:ext cx="6867525" cy="12030075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -124,19 +134,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>519076</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>642899</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1814476</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>528599</xdr:rowOff>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>149488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3" descr="Screenshot_2017-11-18-13-51-35.png"/>
+        <xdr:cNvPr id="73" name="Image 72" descr="Screenshot_20200822-212314_pfodApp V3.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -149,8 +159,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="519076" y="13501649"/>
-          <a:ext cx="6867525" cy="12030075"/>
+          <a:off x="309562" y="49869988"/>
+          <a:ext cx="6738938" cy="13852261"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -162,19 +172,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>521437</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>645262</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1778737</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>492862</xdr:rowOff>
+      <xdr:colOff>288113</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>259538</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>26175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4" descr="Screenshot_2017-11-18-13-51-41.png"/>
+        <xdr:cNvPr id="3" name="Image 2" descr="Screenshot_2017-11-18-13-51-26.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -187,8 +197,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="521437" y="26362762"/>
-          <a:ext cx="6829425" cy="11991975"/>
+          <a:off x="288113" y="188100"/>
+          <a:ext cx="6829425" cy="12030075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -200,19 +210,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>566662</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>76125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1776337</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>638100</xdr:rowOff>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>69001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280988</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>59476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 5" descr="Screenshot_2017-11-18-13-51-48.png"/>
+        <xdr:cNvPr id="5" name="Image 4" descr="Screenshot_2017-11-18-13-51-41.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -225,8 +235,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="566662" y="39366750"/>
-          <a:ext cx="6781800" cy="11991975"/>
+          <a:off x="309563" y="25024501"/>
+          <a:ext cx="6829425" cy="11991975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -238,19 +248,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>530925</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>519112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1740600</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>452437</xdr:rowOff>
+      <xdr:colOff>328537</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>123750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>252337</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>114225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 6" descr="Screenshot_2017-11-18-13-51-53.png"/>
+        <xdr:cNvPr id="6" name="Image 5" descr="Screenshot_2017-11-18-13-51-48.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -263,8 +273,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="530925" y="51954112"/>
-          <a:ext cx="6781800" cy="12077700"/>
+          <a:off x="328537" y="37652250"/>
+          <a:ext cx="6781800" cy="11991975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -275,16 +285,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1619251</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>214313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9906000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>214313</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>652463</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -293,8 +303,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9048751" y="1643063"/>
-          <a:ext cx="10144124" cy="714375"/>
+          <a:off x="7510463" y="1685925"/>
+          <a:ext cx="6562724" cy="1100137"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -344,16 +354,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>738190</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>571501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1619251</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>140494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>652463</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -364,8 +374,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6310315" y="2000251"/>
-          <a:ext cx="2738436" cy="904874"/>
+          <a:off x="6310313" y="2235994"/>
+          <a:ext cx="1200150" cy="264319"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -393,16 +403,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>666750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7620000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -411,8 +421,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8524875" y="2809875"/>
-          <a:ext cx="8382000" cy="881062"/>
+          <a:off x="7486650" y="3167064"/>
+          <a:ext cx="6610350" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -448,7 +458,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Power  of left and Right Motor in Watt</a:t>
+            <a:t>Actual Power  of left and Right Motor in Watt</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -457,16 +467,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>928688</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>6905626</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -475,8 +485,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8358188" y="4405313"/>
-          <a:ext cx="7834313" cy="1404938"/>
+          <a:off x="7458076" y="4524375"/>
+          <a:ext cx="6710362" cy="1928813"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -512,7 +522,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Electrical intensity of Motor in Ma Adjust with    Motor</a:t>
+            <a:t>Electrical intensity of Motor in Ma Adjust with Motor</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
@@ -526,16 +536,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>619124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8143875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>666749</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -544,8 +554,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8239125" y="6334124"/>
-          <a:ext cx="9191625" cy="2905125"/>
+          <a:off x="7462837" y="6691311"/>
+          <a:ext cx="6848475" cy="3619502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -591,7 +601,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
-            <a:t> find the best Value, put the mower in Manual and forward ,Brake the mower until the wheels slip or stop and read max value.</a:t>
+            <a:t> find the best Value, put the mower in Manual and forward ,Brake the mower until the wheels slip or stop,  and read max value.</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="3200"/>
         </a:p>
@@ -601,16 +611,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>857251</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>690563</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4714876</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>700088</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -619,8 +629,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8286751" y="9977438"/>
-          <a:ext cx="5715000" cy="762000"/>
+          <a:off x="7558088" y="10663238"/>
+          <a:ext cx="6610350" cy="671513"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -655,12 +665,8 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>The wheels</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
-            <a:t> speed in RPM</a:t>
+            <a:t>Actual speed in RPM</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="3200"/>
         </a:p>
@@ -670,16 +676,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8120062</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -688,8 +694,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8239125" y="11430000"/>
-          <a:ext cx="9167812" cy="1762125"/>
+          <a:off x="7581899" y="11549062"/>
+          <a:ext cx="6586539" cy="2262188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -774,8 +780,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>In the futur firmware it's not use do not change for the moment or adjust with Speed in PWM</a:t>
-          </a:r>
+            <a:t>Adjust with PWM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t>, In manual check that PWM is not at max value on the 2 wheel ( See Odometry setting)</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -783,16 +794,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>392906</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>80964</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -803,8 +814,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6429375" y="3250406"/>
-          <a:ext cx="2095500" cy="1083469"/>
+          <a:off x="6176964" y="3738564"/>
+          <a:ext cx="1309686" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -832,16 +843,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>833438</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>107157</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>928688</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -851,9 +862,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6405563" y="5107782"/>
-          <a:ext cx="1952625" cy="845343"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6429376" y="5429252"/>
+          <a:ext cx="1028700" cy="59530"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -881,16 +892,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>642937</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47627</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -901,8 +912,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5786438" y="7239000"/>
-          <a:ext cx="2452687" cy="547687"/>
+          <a:off x="6143627" y="6977064"/>
+          <a:ext cx="1319210" cy="1523998"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -930,16 +941,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>857251</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>357188</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>700088</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>140495</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -950,8 +961,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5524500" y="8572500"/>
-          <a:ext cx="2762251" cy="1785938"/>
+          <a:off x="5476875" y="8143875"/>
+          <a:ext cx="2081213" cy="2855120"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -979,16 +990,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>642938</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>185742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -999,8 +1010,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5715000" y="9929813"/>
-          <a:ext cx="2524125" cy="2381250"/>
+          <a:off x="5643563" y="9329742"/>
+          <a:ext cx="1938336" cy="3350414"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1028,16 +1039,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1214438</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>238126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8858251</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>690563</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>719139</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>166690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1046,8 +1057,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8643938" y="14525626"/>
-          <a:ext cx="9501188" cy="1166812"/>
+          <a:off x="7577139" y="14073190"/>
+          <a:ext cx="6448424" cy="1976436"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1112,16 +1123,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>11477625</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>642938</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>700086</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1130,8 +1141,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8477250" y="18097500"/>
-          <a:ext cx="12287250" cy="1119188"/>
+          <a:off x="7558086" y="17692687"/>
+          <a:ext cx="6181726" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1174,7 +1185,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>During this time the Power of motor is not manage help when</a:t>
+            <a:t>During this duration the Power of motor is not manage help when</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200" baseline="0">
@@ -1202,16 +1213,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1404937</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>595311</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9715500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657223</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>52385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1220,8 +1231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8834437" y="20597811"/>
-          <a:ext cx="10167938" cy="1714501"/>
+          <a:off x="7515223" y="19483385"/>
+          <a:ext cx="6438901" cy="1852615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1289,16 +1300,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1509712</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>700088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8224837</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1307,8 +1318,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8939212" y="27846338"/>
-          <a:ext cx="8572500" cy="2395537"/>
+          <a:off x="7300913" y="25384125"/>
+          <a:ext cx="6867525" cy="3595687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1405,16 +1416,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1257301</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7972426</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>747712</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>66673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1423,8 +1434,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8686801" y="16544924"/>
-          <a:ext cx="8572500" cy="647701"/>
+          <a:off x="7605712" y="16259173"/>
+          <a:ext cx="6372225" cy="1123951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1476,15 +1487,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1528763</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8243888</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1494,8 +1505,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8958263" y="23722011"/>
-          <a:ext cx="8572500" cy="1400177"/>
+          <a:off x="7458075" y="21602699"/>
+          <a:ext cx="6400800" cy="2900364"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1626,16 +1637,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>107157</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1214438</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>719139</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>11908</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1645,9 +1656,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6762750" y="15109032"/>
-          <a:ext cx="1881188" cy="607218"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6262689" y="14835188"/>
+          <a:ext cx="1314450" cy="226220"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1675,16 +1686,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>438150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1257301</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>666750</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>747714</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>747712</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1694,9 +1705,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6762750" y="16868775"/>
-          <a:ext cx="1924051" cy="228600"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6843714" y="16335375"/>
+          <a:ext cx="761998" cy="485774"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1724,16 +1735,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1071563</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>261938</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695326</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>161928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>700086</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1743,9 +1754,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6643688" y="18657094"/>
-          <a:ext cx="1833562" cy="178594"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6791326" y="17878428"/>
+          <a:ext cx="766760" cy="600072"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1773,16 +1784,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>404813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1404937</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657223</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>26193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1793,8 +1804,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7096125" y="20407313"/>
-          <a:ext cx="1738312" cy="1047749"/>
+          <a:off x="6548438" y="19264313"/>
+          <a:ext cx="966785" cy="1145380"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1822,16 +1833,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1309688</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1404937</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>452438</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>26193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657223</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1842,8 +1853,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6881813" y="21455062"/>
-          <a:ext cx="1952624" cy="428626"/>
+          <a:off x="6334125" y="20409693"/>
+          <a:ext cx="1181098" cy="473870"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1871,16 +1882,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>642938</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>500063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1528763</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>2381</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1891,8 +1902,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6215063" y="24074438"/>
-          <a:ext cx="2743200" cy="347662"/>
+          <a:off x="6691313" y="22383751"/>
+          <a:ext cx="766762" cy="669130"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1920,16 +1931,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1523999</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>666751</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8929687</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>666751</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>166689</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1938,8 +1949,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953499" y="32099251"/>
-          <a:ext cx="9263063" cy="1428750"/>
+          <a:off x="7391399" y="29289377"/>
+          <a:ext cx="6705601" cy="2309812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1981,7 +1992,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Use to go in straigh line with ODOmetry when IMU is not use)</a:t>
+            <a:t>Use to go in straigh line with ODOmetry (when IMU is not used or in Manual mode)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1990,16 +2001,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1724024</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>319087</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9129712</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>319087</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2008,8 +2019,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9153524" y="34609087"/>
-          <a:ext cx="9263063" cy="1428750"/>
+          <a:off x="7362826" y="32027812"/>
+          <a:ext cx="6805612" cy="1357314"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2045,7 +2056,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Test of motor (remove in the futur version because there is a new menu for that)</a:t>
+            <a:t>Test of motor (remove in the futur version : there is a new menu for that)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2054,16 +2065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1090611</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>585785</xdr:colOff>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8496299</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2072,8 +2083,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8520111" y="42262424"/>
-          <a:ext cx="9263063" cy="1428750"/>
+          <a:off x="7443785" y="38404799"/>
+          <a:ext cx="6438902" cy="1552578"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2118,16 +2129,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>833438</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>469107</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1509712</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>309563</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2138,8 +2149,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6405563" y="29044107"/>
-          <a:ext cx="2533649" cy="554831"/>
+          <a:off x="6529389" y="27181969"/>
+          <a:ext cx="771524" cy="269082"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2167,16 +2178,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1523999</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>666751</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>154783</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2187,8 +2198,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6024563" y="30384750"/>
-          <a:ext cx="2928936" cy="2428876"/>
+          <a:off x="4929188" y="28979813"/>
+          <a:ext cx="2462211" cy="1464470"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2216,16 +2227,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1523999</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>666751</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>154783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2235,9 +2246,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5667375" y="32766000"/>
-          <a:ext cx="3286124" cy="47626"/>
+        <a:xfrm flipH="1">
+          <a:off x="5024438" y="30444283"/>
+          <a:ext cx="2366961" cy="130967"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2265,16 +2276,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>666751</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1523999</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>154783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2285,8 +2296,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5929313" y="32813626"/>
-          <a:ext cx="3024186" cy="833437"/>
+          <a:off x="5143500" y="30444283"/>
+          <a:ext cx="2247899" cy="1607342"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2314,16 +2325,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>309563</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1724024</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>319087</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2333,9 +2344,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5810250" y="35313938"/>
-          <a:ext cx="3343274" cy="9524"/>
+        <a:xfrm flipH="1">
+          <a:off x="5524500" y="32706469"/>
+          <a:ext cx="1838326" cy="1178719"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2363,26 +2374,75 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1195387</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>266699</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8601075</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>266699</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>738187</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>585785</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Connecteur droit avec flèche 64"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6072187" y="39181088"/>
+          <a:ext cx="1371598" cy="823913"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600077</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="ZoneTexte 62"/>
+        <xdr:cNvPr id="72" name="ZoneTexte 71"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8624887" y="45986699"/>
-          <a:ext cx="9263063" cy="1428750"/>
+          <a:off x="7458077" y="42691051"/>
+          <a:ext cx="6353174" cy="790574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2418,7 +2478,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Swap is use to reverse a motor but BETTER TO INVERT THE POLARITY ON MOTOR</a:t>
+            <a:t>I need to verify but not use</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2427,28 +2487,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1090611</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600077</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Connecteur droit avec flèche 64"/>
+        <xdr:cNvPr id="74" name="Connecteur droit avec flèche 73"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="52" idx="1"/>
+          <a:stCxn id="72" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6048375" y="42338625"/>
-          <a:ext cx="2471736" cy="638174"/>
+        <a:xfrm flipH="1">
+          <a:off x="5500688" y="43086338"/>
+          <a:ext cx="1957389" cy="442912"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2476,173 +2536,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1090611</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="Connecteur droit avec flèche 66"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="52" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5953125" y="42976799"/>
-          <a:ext cx="2566986" cy="790576"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>452438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1195387</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>266699</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="Connecteur droit avec flèche 68"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="63" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6572250" y="46172438"/>
-          <a:ext cx="2052637" cy="528636"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>266699</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1195387</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>690563</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="Connecteur droit avec flèche 70"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="63" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6762750" y="46701074"/>
-          <a:ext cx="1862137" cy="423864"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>833438</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>309563</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8239126</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>285751</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="ZoneTexte 71"/>
+        <xdr:cNvPr id="75" name="ZoneTexte 74"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8262938" y="44600813"/>
-          <a:ext cx="9263063" cy="690563"/>
+          <a:off x="7429500" y="44029311"/>
+          <a:ext cx="8167688" cy="1809751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2678,7 +2591,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>I need to verify</a:t>
+            <a:t>Swap is used to reverse a motor but BETTER TO INVERT THE WIRE DIRECTLY ON MOTOR</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2687,75 +2600,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>547688</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>654845</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>833438</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Connecteur droit avec flèche 73"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="72" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6119813" y="44946095"/>
-          <a:ext cx="2143125" cy="178593"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8120063</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="ZoneTexte 74"/>
+        <xdr:cNvPr id="76" name="ZoneTexte 75"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8143875" y="53387625"/>
-          <a:ext cx="9263063" cy="1428750"/>
+          <a:off x="7334250" y="54768748"/>
+          <a:ext cx="10239376" cy="1500189"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2791,7 +2655,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Swap is used to reverse a motor but BETTER TO INVERT THE WIRE DIRECTLY ON MOTOR</a:t>
+            <a:t>Minimum PWM for the motor to turn on small slope ,VERY IMPORTANT to avoid long pause during mowing</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2800,26 +2664,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8120063</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="ZoneTexte 75"/>
+        <xdr:cNvPr id="77" name="ZoneTexte 76"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8143875" y="59340750"/>
-          <a:ext cx="9263063" cy="1428750"/>
+          <a:off x="7362825" y="51244501"/>
+          <a:ext cx="10210799" cy="3024187"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2855,8 +2719,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Minimum PWM for the motor to turn on small slope ,VERY IMPORTANT to avoid long pause during mowing</a:t>
-          </a:r>
+            <a:t>Offset to help the 2 motor to go at exactly the same speed when same PWM,easy to check into test motor 5 turn the 2 motors need to stop at the same time,Into forward and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t> reverse Mode,</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2864,26 +2733,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>985838</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>342899</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8391526</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514348</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>128582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>305</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="ZoneTexte 76"/>
+        <xdr:cNvPr id="78" name="ZoneTexte 77"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8415338" y="56064149"/>
-          <a:ext cx="9263063" cy="2609851"/>
+          <a:off x="7372348" y="56707082"/>
+          <a:ext cx="10248902" cy="1490668"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2919,11 +2788,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Offset to help the 2 motor to go at exactly the same speed when same PWM,easy to check into test motor 5 turn the 2 motors need to stop at the same time,Into forward and</a:t>
+            <a:t>Maximum PWM Avoid mower go too fast when adding</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
-            <a:t> reverse Mode,</a:t>
+            <a:t> the PID (need to be smaller than MaxPWM)</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="3200"/>
         </a:p>
@@ -2933,26 +2802,320 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>842962</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8248650</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628652</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Connecteur droit avec flèche 79"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6724652" y="44219813"/>
+          <a:ext cx="704848" cy="714374"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Connecteur droit avec flèche 81"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6477000" y="44934187"/>
+          <a:ext cx="952500" cy="642938"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>178595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Connecteur droit avec flèche 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5619750" y="52756595"/>
+          <a:ext cx="1743075" cy="1559718"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>178595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Connecteur droit avec flèche 85"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5524500" y="52756595"/>
+          <a:ext cx="1838325" cy="3559968"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119064</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Connecteur droit avec flèche 87"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6215064" y="55518843"/>
+          <a:ext cx="1119186" cy="2297907"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>111916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514348</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Connecteur droit avec flèche 89"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="78" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6429375" y="57452416"/>
+          <a:ext cx="942973" cy="2007397"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="ZoneTexte 77"/>
+        <xdr:cNvPr id="79" name="ZoneTexte 78"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8272462" y="61469587"/>
-          <a:ext cx="9263063" cy="1428750"/>
+          <a:off x="7458075" y="58459688"/>
+          <a:ext cx="10091737" cy="3214688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2988,13 +3151,18 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Maximum PWM Avoid mower go too fast when adding</a:t>
+            <a:t>Warning MOWER MOVE when click</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>To</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
-            <a:t> the PID (need to be smaller than MaxPWM)</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="3200"/>
+            <a:t> do once into normal grass to help the firmware to compute all the state duration and avoid wait at the end of state on slope or big grass</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3002,28 +3170,92 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>428625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="ZoneTexte 168"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477125" y="40390762"/>
+          <a:ext cx="6510337" cy="1781176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>Use to perfectly set the intensity of Right motor (Visible only in DEV mode) </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723901</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>176214</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="Connecteur droit avec flèche 79"/>
+        <xdr:cNvPr id="170" name="Connecteur droit avec flèche 169"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="75" idx="1"/>
+          <a:stCxn id="169" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6810375" y="54006750"/>
-          <a:ext cx="1333500" cy="95250"/>
+        <a:xfrm flipH="1">
+          <a:off x="6057901" y="41281350"/>
+          <a:ext cx="1419224" cy="423864"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3051,224 +3283,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1023938</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>404813</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="Connecteur droit avec flèche 81"/>
+        <xdr:cNvPr id="191" name="Connecteur droit avec flèche 190"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="75" idx="1"/>
+          <a:stCxn id="79" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6596063" y="54102000"/>
-          <a:ext cx="1547812" cy="595313"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>547688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>985838</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="Connecteur droit avec flèche 83"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="77" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6238875" y="56268938"/>
-          <a:ext cx="2176463" cy="1100137"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>985838</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="86" name="Connecteur droit avec flèche 85"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="77" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5905500" y="57369075"/>
-          <a:ext cx="2509838" cy="971550"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="Connecteur droit avec flèche 87"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="76" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6619875" y="60055125"/>
-          <a:ext cx="1524000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>842962</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="Connecteur droit avec flèche 89"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="78" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5524500" y="62183962"/>
-          <a:ext cx="2747962" cy="133351"/>
+          <a:off x="5953125" y="60067032"/>
+          <a:ext cx="1504950" cy="1035843"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3340,15 +3376,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>269101</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>307201</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3357,7 +3393,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7889101" y="2514600"/>
+          <a:off x="7927201" y="4152900"/>
           <a:ext cx="6626999" cy="1123950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3398,7 +3434,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
-            <a:t> or Not, If Not the RTC is not read</a:t>
+            <a:t> or Not for All the timer</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="3200"/>
         </a:p>
@@ -3408,16 +3444,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>269101</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>307201</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3428,8 +3464,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4991100" y="2209800"/>
-          <a:ext cx="2898001" cy="866775"/>
+          <a:off x="5791200" y="2171700"/>
+          <a:ext cx="2136001" cy="2543175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3458,15 +3494,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>364350</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>288150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3475,7 +3511,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7984350" y="5276850"/>
+          <a:off x="7908150" y="7105650"/>
           <a:ext cx="6055500" cy="2324100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3538,16 +3574,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>364350</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>288150</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3558,8 +3594,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6248400" y="3924300"/>
-          <a:ext cx="1735950" cy="2514600"/>
+          <a:off x="5524500" y="4991100"/>
+          <a:ext cx="2383650" cy="3276600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3588,15 +3624,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>364350</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>288150</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3607,8 +3643,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5943600" y="5162550"/>
-          <a:ext cx="2040750" cy="1276350"/>
+          <a:off x="5600700" y="6457950"/>
+          <a:ext cx="2307450" cy="1809750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3637,15 +3673,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288150</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>364350</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3656,7 +3692,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6515100" y="6438900"/>
+          <a:off x="6438900" y="8267700"/>
           <a:ext cx="1469250" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3686,15 +3722,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>364350</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>288150</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3705,7 +3741,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6381750" y="6438900"/>
+          <a:off x="6305550" y="8267700"/>
           <a:ext cx="1602600" cy="1809750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3734,16 +3770,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>364350</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>288150</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3753,9 +3789,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6419850" y="6438900"/>
-          <a:ext cx="1564500" cy="3009900"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5467350" y="3733800"/>
+          <a:ext cx="2440800" cy="4533900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4019,7 +4055,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Use or Not</a:t>
+            <a:t>Use or Not this timer</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4993,15 +5029,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>207150</xdr:colOff>
-      <xdr:row>241</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>226200</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5010,7 +5046,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8629650" y="44824650"/>
+          <a:off x="8648700" y="45053250"/>
           <a:ext cx="6055500" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5061,13 +5097,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>246</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>264300</xdr:colOff>
-      <xdr:row>263</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5077,8 +5113,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8686800" y="47034450"/>
-          <a:ext cx="6055500" cy="3086100"/>
+          <a:off x="8686800" y="47129700"/>
+          <a:ext cx="6055500" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5114,7 +5150,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>When you click here if the mower is in Station or Off state the cycle start immediatly (use to set perfecly the distance and verify setting)</a:t>
+            <a:t>Not use </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5176,15 +5212,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>248</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5195,7 +5231,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6019800" y="45405675"/>
+          <a:off x="6038850" y="45634275"/>
           <a:ext cx="2609850" cy="1914525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5226,14 +5262,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>253</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>255</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5243,9 +5279,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6591300" y="48234600"/>
-          <a:ext cx="2095500" cy="342900"/>
+        <a:xfrm flipH="1">
+          <a:off x="6591300" y="47482125"/>
+          <a:ext cx="2095500" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5271,33 +5307,28 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>645300</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>16649</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="ZoneTexte 31"/>
+        <xdr:cNvPr id="57" name="ZoneTexte 56"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8305800" y="3067050"/>
-          <a:ext cx="6055500" cy="1409700"/>
+          <a:off x="7867650" y="285750"/>
+          <a:ext cx="6626999" cy="3448050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5332,189 +5363,67 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Set to YES if the Bumper is pressed when mower hit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
-            <a:t> the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>station</a:t>
+            <a:rPr lang="fr-FR" sz="3200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>When use the Go to Station </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>All</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> timer are deactivate for the next 2 hours.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>To skip this pause : set one of the 5 timer Use from Yes to No and again Yes</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>416700</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="ZoneTexte 32"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8077200" y="43357800"/>
-          <a:ext cx="6055500" cy="1162050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>After reverse it's the roll angle</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="3200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>492900</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="ZoneTexte 33"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8153400" y="14249400"/>
-          <a:ext cx="6055500" cy="3124200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>During the tracking the right sonar is used to reduce the speed when something is on the wire,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>see</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
-            <a:t> Robot::checkSonarPeriTrack() </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
-            <a:t>if you want to use other sonar</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="3200"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="3200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:colOff>155490</xdr:colOff>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Image 37" descr="Screenshot_20190531-085634_pfodApp V3.jpg"/>
+        <xdr:cNvPr id="18" name="Image 17" descr="Screenshot_20200822-212452_pfodApp V3.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5527,8 +5436,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="37833300"/>
-          <a:ext cx="7715250" cy="16173450"/>
+          <a:off x="0" y="1257300"/>
+          <a:ext cx="7775490" cy="15982950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5539,73 +5448,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Connecteur droit avec flèche 34"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4591050" y="40271700"/>
-          <a:ext cx="3924300" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>645300</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>531000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="ZoneTexte 41"/>
+        <xdr:cNvPr id="32" name="ZoneTexte 31"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191500" y="41433750"/>
-          <a:ext cx="6055500" cy="1162050"/>
+          <a:off x="8305800" y="3067050"/>
+          <a:ext cx="6055500" cy="1409700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5641,11 +5503,16 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>When leave the station with timer it's rev distance</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="3200"/>
+            <a:t>Set to YES if the Bumper is pressed when mower hit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t> the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>station</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5653,74 +5520,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Connecteur droit avec flèche 35"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="33" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4991100" y="43853100"/>
-          <a:ext cx="3086100" cy="85725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>473850</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>492900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="ZoneTexte 44"/>
+        <xdr:cNvPr id="33" name="ZoneTexte 32"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8134350" y="45072300"/>
+          <a:off x="8153400" y="8991600"/>
           <a:ext cx="6055500" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5757,7 +5575,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>After Roll it's the straight line before arc circle to avoid station</a:t>
+            <a:t>After reverse it's the roll angle</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5770,25 +5588,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>531000</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>492900</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="ZoneTexte 46"/>
+        <xdr:cNvPr id="34" name="ZoneTexte 33"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191500" y="10572750"/>
-          <a:ext cx="6055500" cy="3124200"/>
+          <a:off x="8153400" y="14249400"/>
+          <a:ext cx="6055500" cy="1809750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5824,11 +5642,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>When the mower detect the station it try to gently go forward to this distnce to be sure the contact is OK</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="3200"/>
+            <a:t>During the tracking the right sonar is used to reduce the speed when something or station is on the wire.</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5837,25 +5652,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Connecteur droit avec flèche 48"/>
+        <xdr:cNvPr id="35" name="Connecteur droit avec flèche 34"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5181600" y="6019800"/>
-          <a:ext cx="3086100" cy="85725"/>
+        <a:xfrm flipH="1">
+          <a:off x="4591050" y="40271700"/>
+          <a:ext cx="3924300" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5883,167 +5698,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Connecteur droit avec flèche 49"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5181600" y="9620250"/>
-          <a:ext cx="3086100" cy="85725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Connecteur droit avec flèche 50"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5143500" y="10934700"/>
-          <a:ext cx="3086100" cy="85725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>133352</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Connecteur droit avec flèche 51"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5067300" y="13011152"/>
-          <a:ext cx="3257550" cy="1733548"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>511950</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>435750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="ZoneTexte 55"/>
+        <xdr:cNvPr id="42" name="ZoneTexte 41"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8172450" y="18459450"/>
-          <a:ext cx="6055500" cy="952500"/>
+          <a:off x="8096250" y="7620000"/>
+          <a:ext cx="6055500" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6079,7 +5753,15 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="3200"/>
-            <a:t>Only for test timer</a:t>
+            <a:t>When leave the station it's reverse</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>distance</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6092,25 +5774,1230 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Connecteur droit avec flèche 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5067300" y="9486900"/>
+          <a:ext cx="3086100" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>492900</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="ZoneTexte 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="10287000"/>
+          <a:ext cx="6055500" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>After Roll it's the straight line before arc circle to avoid station</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>492900</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="ZoneTexte 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="11544300"/>
+          <a:ext cx="6055500" cy="2457450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>When the mower detect the station it try to gently go forward to this distance to be sure the contact is OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Connecteur droit avec flèche 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5505450" y="7658100"/>
+          <a:ext cx="2590800" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Connecteur droit avec flèche 49"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4152900" y="10648950"/>
+          <a:ext cx="4000500" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Connecteur droit avec flèche 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3981450" y="12773025"/>
+          <a:ext cx="4171950" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Connecteur droit avec flèche 51"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4591050" y="14401800"/>
+          <a:ext cx="3733800" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>569100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="ZoneTexte 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="4972050"/>
+          <a:ext cx="6055500" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>At the end of the charging state the mower reboot</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="57" name="Connecteur droit avec flèche 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5448300" y="5819775"/>
+          <a:ext cx="2781300" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>134302</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>113850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Image 39" descr="Screenshot_20191013-205729_pfodApp V3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="4514850"/>
+          <a:ext cx="1753552" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>189251</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>151950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Image 38" descr="Screenshot_20191013-205716_pfodApp V3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="361950"/>
+          <a:ext cx="1751351" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>554851</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2326501" y="228600"/>
+          <a:ext cx="1902599" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Actual Battery Voltage</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>554851</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Connecteur droit avec flèche 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1676400" y="371475"/>
+          <a:ext cx="650101" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="ZoneTexte 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400300" y="723900"/>
+          <a:ext cx="2000250" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Manage or not the battery </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="ZoneTexte 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="1143000"/>
+          <a:ext cx="2609850" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Coeff to adjust the Chargeur</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> voltage</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Only visible on Dev Mode</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="ZoneTexte 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257425" y="5648325"/>
+          <a:ext cx="2400300" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Actual Charge Voltage and sense</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="ZoneTexte 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="6257925"/>
+          <a:ext cx="876300" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Not Use</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Connecteur droit avec flèche 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1790700" y="1381125"/>
+          <a:ext cx="381000" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Connecteur droit avec flèche 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1714500" y="885825"/>
+          <a:ext cx="685800" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Connecteur droit avec flèche 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1819275" y="4186237"/>
+          <a:ext cx="276225" cy="938213"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Connecteur droit avec flèche 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1647825" y="2743200"/>
+          <a:ext cx="885825" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Connecteur droit avec flèche 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1562100" y="5176837"/>
+          <a:ext cx="666750" cy="328613"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Connecteur droit avec flèche 22"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4895850" y="15163800"/>
-          <a:ext cx="3486150" cy="3371850"/>
+        <a:xfrm flipH="1">
+          <a:off x="1724025" y="5848350"/>
+          <a:ext cx="552451" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6134,6 +7021,4220 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="ZoneTexte 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="6610349"/>
+          <a:ext cx="2247900" cy="561976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>The charging start if the voltage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t> is under this value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Connecteur droit avec flèche 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1676400" y="6724650"/>
+          <a:ext cx="600075" cy="166687"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="ZoneTexte 48"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="1771650"/>
+          <a:ext cx="2533650" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Coeff to adjust the Battery</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> voltage</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Only visible on Dev Mode</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="ZoneTexte 49"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162175" y="2390774"/>
+          <a:ext cx="2819400" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Coeff to adjust the charge</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> sense battery</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Only visible on Dev Mode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="ZoneTexte 61"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2533650" y="2952750"/>
+          <a:ext cx="2114550" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Voltage to return to station</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="ZoneTexte 62"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="3752849"/>
+          <a:ext cx="2857500" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>If the mower is</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> into state OFF or ERROR</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>The PCB is automaticly</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> totaly power OFF after this duration</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Connecteur droit avec flèche 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1685925" y="2162176"/>
+          <a:ext cx="476250" cy="471486"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Connecteur droit avec flèche 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1800225" y="1790700"/>
+          <a:ext cx="342900" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="ZoneTexte 76"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="4819649"/>
+          <a:ext cx="2971800" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>If the battery voltage is under this value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>The PCB is automaticly</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> totaly power OFF </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t>to avoid damage </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Connecteur droit avec flèche 81"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1781175" y="6124576"/>
+          <a:ext cx="1181100" cy="276224"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="ZoneTexte 86"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="7248525"/>
+          <a:ext cx="2286000" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>The charging stop if the charging</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t>sense</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t> is under this value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Connecteur droit avec flèche 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="87" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1533525" y="7200901"/>
+          <a:ext cx="600075" cy="352424"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106578</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>132836</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Image 88" descr="Screenshot_20191027-182225_pfodApp V3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="106578" y="10001250"/>
+          <a:ext cx="1797908" cy="3695700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>184149</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Image 48" descr="Screenshot_20191027-182211_pfodApp V3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="4213581"/>
+          <a:ext cx="1765299" cy="3628669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>202856</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>100008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38097</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Image 27" descr="Screenshot_20191027-182157_pfodApp V3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="202856" y="290508"/>
+          <a:ext cx="1730719" cy="3557589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>538977</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Connecteur droit avec flèche 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1752600" y="209550"/>
+          <a:ext cx="558027" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="ZoneTexte 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171699" y="425450"/>
+          <a:ext cx="2771775" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t>See or Change the Actual Mowing Area</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="ZoneTexte 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="787400"/>
+          <a:ext cx="3549650" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Mag is the realtime result of wire Power,negative if the mower is inside the Area</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Smag is</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> averrage and smooth of the reading </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215899</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="ZoneTexte 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200274" y="4619625"/>
+          <a:ext cx="3248025" cy="498476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>The maximum value you can read when mower is near the wire (Use when tracking)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>412751</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>136524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="ZoneTexte 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2184401" y="5851524"/>
+          <a:ext cx="3086100" cy="644525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>When tracking it's the duration before full</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> roll</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Connecteur droit avec flèche 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1670050" y="1130300"/>
+          <a:ext cx="406400" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Connecteur droit avec flèche 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1758950" y="587375"/>
+          <a:ext cx="412749" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Connecteur droit avec flèche 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1644650" y="2984500"/>
+          <a:ext cx="520700" cy="917575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Connecteur droit avec flèche 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1835150" y="2470150"/>
+          <a:ext cx="292100" cy="815975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Connecteur droit avec flèche 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1511300" y="4295775"/>
+          <a:ext cx="666750" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>511178</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Connecteur droit avec flèche 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1692278" y="4868863"/>
+          <a:ext cx="507996" cy="557212"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="ZoneTexte 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="6870699"/>
+          <a:ext cx="3517899" cy="561976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>While tracking if the mower never</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> change from inside to outside for this duration it's ERROR</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Connecteur droit avec flèche 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1435100" y="6267450"/>
+          <a:ext cx="698500" cy="884237"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>374649</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="ZoneTexte 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2089150" y="1504950"/>
+          <a:ext cx="3517899" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Value use to detect a sender issue or cutting wire</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>If</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> Smag is lower it's ERROR</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>298451</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="ZoneTexte 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="2200274"/>
+          <a:ext cx="3425826" cy="606426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>If the Mag is positive (Mower outside) during this duration it's ERROR</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="ZoneTexte 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2127250" y="2908300"/>
+          <a:ext cx="3486150" cy="755650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>On Big Area the noise into Mag in the middle area can change</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> from positive to negative,This setting allow the mower to skip it (Always &gt; at Mini Smag)</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="ZoneTexte 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2165350" y="3746499"/>
+          <a:ext cx="2101850" cy="311151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Normal Tracking PWM speed </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>565153</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>26987</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Connecteur droit avec flèche 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1746253" y="2235201"/>
+          <a:ext cx="358772" cy="268286"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Connecteur droit avec flèche 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1587500" y="1638301"/>
+          <a:ext cx="501650" cy="161924"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="ZoneTexte 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2178050" y="4152899"/>
+          <a:ext cx="3511550" cy="285751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>When hit obstacle while tracking it's the Arc value</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>412751</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>77787</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Connecteur droit avec flèche 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1797050" y="5842000"/>
+          <a:ext cx="387351" cy="331787"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="ZoneTexte 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2533650" y="10036175"/>
+          <a:ext cx="2286000" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>PID for tracking Change</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> value according to your chassis</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Connecteur droit avec flèche 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1530350" y="10340975"/>
+          <a:ext cx="1003300" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>538977</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>260351</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="ZoneTexte 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2310627" y="66675"/>
+          <a:ext cx="902474" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Use or Not</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Connecteur droit avec flèche 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1428750" y="10340975"/>
+          <a:ext cx="1104900" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Connecteur droit avec flèche 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1371600" y="10340975"/>
+          <a:ext cx="1162050" cy="1412875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="ZoneTexte 75"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="10937875"/>
+          <a:ext cx="2819400" cy="327025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Software reverse left coil Inside Outside</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="ZoneTexte 76"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2317750" y="11430000"/>
+          <a:ext cx="2819400" cy="327025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Software reverse right coil Inside Outside</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="ZoneTexte 77"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="11861800"/>
+          <a:ext cx="2819400" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Read Left and right coil (Not usefull actualy)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Connecteur droit avec flèche 78"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1593850" y="11101388"/>
+          <a:ext cx="673100" cy="1046162"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>163513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Connecteur droit avec flèche 79"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1651000" y="11593513"/>
+          <a:ext cx="666750" cy="795337"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Connecteur droit avec flèche 80"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="78" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1651000" y="12195175"/>
+          <a:ext cx="635000" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="ZoneTexte 101"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2273300" y="12642850"/>
+          <a:ext cx="2819400" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Avoid  the 2 wheels run at opposite direction while tracking for smooth movement</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Connecteur droit avec flèche 102"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="102" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1752600" y="12973050"/>
+          <a:ext cx="520700" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>136954</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Image 37" descr="Screenshot_20200822-212216_pfodApp V3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17526000"/>
+          <a:ext cx="7756954" cy="15944850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127686</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 16" descr="Screenshot_20200822-212207_pfodApp V3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="7747686" cy="15925800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>550050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8210550" y="1543050"/>
+          <a:ext cx="6055500" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>Set to YES during all test to avoid motor start</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>435750</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="ZoneTexte 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8096250" y="18478500"/>
+          <a:ext cx="6055500" cy="3867150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>The max and min speed</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t> of the mow motor,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t>Speed is automaticly adjust between min and max according the high of the grass,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t>Reduce noise and increase mowing duration</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>531000</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="ZoneTexte 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191500" y="25031700"/>
+          <a:ext cx="6055500" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>Result</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t> of the compute speed coeff</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Connecteur droit avec flèche 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6705600" y="2247900"/>
+          <a:ext cx="1504950" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>531000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="ZoneTexte 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191500" y="4552950"/>
+          <a:ext cx="6055500" cy="3867150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>Max Power,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>At</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t> 80% the mow spirale start,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t>At 100% during 5 Seconds the motor stop for one minute,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t>Error can occur by motor driver itself if power realy too high,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t>Reset the mower to reinit the error</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Connecteur droit avec flèche 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6629400" y="19678650"/>
+          <a:ext cx="1466850" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>550050</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="ZoneTexte 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8210550" y="23241000"/>
+          <a:ext cx="6055500" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Use to perfectly set the intensity of  motor (Visible only in DEV mode) </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>550050</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="ZoneTexte 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8210550" y="26136600"/>
+          <a:ext cx="6055500" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>The actual motor Speed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>304803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Connecteur droit avec flèche 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5600700" y="5638803"/>
+          <a:ext cx="2590800" cy="847722"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Connecteur droit avec flèche 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6877050" y="23412450"/>
+          <a:ext cx="1333500" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Connecteur droit avec flèche 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6210300" y="26193751"/>
+          <a:ext cx="2000250" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>114302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Connecteur droit avec flèche 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6496050" y="24993602"/>
+          <a:ext cx="1695450" cy="438148"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="ZoneTexte 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8210550" y="3162300"/>
+          <a:ext cx="6096000" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>Actual Mow Motor power and current</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Connecteur droit avec flèche 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6419850" y="3581401"/>
+          <a:ext cx="1790700" cy="142874"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Connecteur droit avec flèche 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6419850" y="3724275"/>
+          <a:ext cx="1790700" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Connecteur droit avec flèche 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6629400" y="20412075"/>
+          <a:ext cx="1466850" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>473850</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="ZoneTexte 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8134350" y="27260550"/>
+          <a:ext cx="6055500" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>Auto</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200" baseline="0"/>
+            <a:t> mow pattern change when mowing to avoid trackon the grass,swap between random and lane</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Connecteur droit avec flèche 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6019800" y="27851100"/>
+          <a:ext cx="2114550" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Connecteur droit avec flèche 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5543550" y="29813250"/>
+          <a:ext cx="2609850" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>492900</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="ZoneTexte 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="30060900"/>
+          <a:ext cx="6055500" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="3200"/>
+            <a:t>To test the motor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6426,29 +11527,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E5:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A70" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" topLeftCell="A169" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="T326" sqref="T326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="57" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="28" style="2"/>
-    <col min="6" max="6" width="243.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="214.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="2"/>
+    <col min="6" max="6" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:6" ht="57" customHeight="1">
+    <row r="5" spans="6:6" ht="15" customHeight="1">
       <c r="F5" s="3"/>
     </row>
-    <row r="29" spans="6:6" ht="57" customHeight="1">
+    <row r="29" spans="6:6" ht="15" customHeight="1">
       <c r="F29"/>
     </row>
-    <row r="43" spans="6:6" ht="57" customHeight="1">
+    <row r="43" spans="6:6" ht="15" customHeight="1">
       <c r="F43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6457,8 +11557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A199" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection sqref="A1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6476,8 +11576,8 @@
   </sheetPr>
   <dimension ref="N29:W43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="P233" sqref="P233"/>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6490,7 +11590,68 @@
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="40" fitToHeight="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" fitToHeight="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="N29:W43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="N162" sqref="N162"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="29" spans="14:14" ht="42">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="43" spans="23:23" ht="42">
+      <c r="W43" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="40" fitToHeight="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Menu Helper/Menu helper.xlsx
+++ b/Menu Helper/Menu helper.xlsx
@@ -4,25 +4,46 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="17715" windowHeight="6480" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="17715" windowHeight="6480"/>
   </bookViews>
   <sheets>
-    <sheet name="Motor setting" sheetId="1" r:id="rId1"/>
-    <sheet name="Timer Setting" sheetId="3" r:id="rId2"/>
-    <sheet name="Station Setting" sheetId="4" r:id="rId3"/>
-    <sheet name="Battery Setting" sheetId="5" r:id="rId4"/>
-    <sheet name="Perimeter Setting" sheetId="6" r:id="rId5"/>
-    <sheet name="Mow Setting" sheetId="7" r:id="rId6"/>
+    <sheet name="Imu Setting" sheetId="9" r:id="rId1"/>
+    <sheet name="Odometry Setting" sheetId="8" r:id="rId2"/>
+    <sheet name="Motor setting" sheetId="1" r:id="rId3"/>
+    <sheet name="Timer Setting" sheetId="3" r:id="rId4"/>
+    <sheet name="Station Setting" sheetId="4" r:id="rId5"/>
+    <sheet name="Battery Setting" sheetId="5" r:id="rId6"/>
+    <sheet name="Perimeter Setting" sheetId="6" r:id="rId7"/>
+    <sheet name="Mow Setting" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Battery Setting'!$A:$V</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Mow Setting'!$A:$S</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Perimeter Setting'!$1:$80</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Station Setting'!$A:$S</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Timer Setting'!$A:$T</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Battery Setting'!$A:$V</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Imu Setting'!$A:$V</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Mow Setting'!$A:$S</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Odometry Setting'!$A:$V</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Perimeter Setting'!$1:$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Station Setting'!$A:$S</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Timer Setting'!$A:$T</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>The Gyro/Accel is used non stop (each 50 ms) but a drift can occur after some minutes</t>
+  </si>
+  <si>
+    <t>The IMU is used to drive in straight line on slope and to have the correct BY Lane mowing,</t>
+  </si>
+  <si>
+    <t>So the compass help to adjust the heading and continue to mow parallel</t>
+  </si>
+  <si>
+    <t>If the compass is not use you can see the drift only in by lane mowing mode,</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -96,6 +117,2695 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>158115</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>51436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Image 14" descr="imu3.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="8077201"/>
+          <a:ext cx="1748790" cy="3594735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>41911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 13" descr="imu2.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="4067176"/>
+          <a:ext cx="1748790" cy="3594735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123052</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 12" descr="imu1.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152401" y="238125"/>
+          <a:ext cx="1742301" cy="3581398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>373876</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2145526" y="123825"/>
+          <a:ext cx="1902599" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Use or not </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>373876</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Connecteur droit avec flèche 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1524000" y="266700"/>
+          <a:ext cx="621526" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="ZoneTexte 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="1200148"/>
+          <a:ext cx="3600450" cy="1047752"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Compass can't work near metal or magnet so it's possible to deactivate it according to your chassis and IMU location inside.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>If not use the heading 0 is the station and heading can drift over time when mow by lane</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Connecteur droit avec flèche 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1495425" y="1724024"/>
+          <a:ext cx="647700" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Connecteur droit avec flèche 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1619250" y="2162175"/>
+          <a:ext cx="409575" cy="319088"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="ZoneTexte 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="2314575"/>
+          <a:ext cx="3695700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Actual value of Compass and Gyro/Accel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="ZoneTexte 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="1933574"/>
+          <a:ext cx="2819400" cy="304801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Actual Drive heading</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="ZoneTexte 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="2314575"/>
+          <a:ext cx="2838450" cy="333376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Actual Pitch near 0 normaly</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Connecteur droit avec flèche 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1543051" y="1895475"/>
+          <a:ext cx="485774" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Connecteur droit avec flèche 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1733550" y="2409825"/>
+          <a:ext cx="304800" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="ZoneTexte 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="2705100"/>
+          <a:ext cx="2838450" cy="333376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Actual Roll near 0 normaly</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Connecteur droit avec flèche 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1628775" y="2419350"/>
+          <a:ext cx="400050" cy="452438"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="ZoneTexte 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="3152775"/>
+          <a:ext cx="3600450" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Stop the mow motor when the mower adjust the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> Gyro/Accel and the Compass into normal mowing mode </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Connecteur droit avec flèche 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1362076" y="2800351"/>
+          <a:ext cx="695324" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="ZoneTexte 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="4152900"/>
+          <a:ext cx="3600450" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Pid setting if correctly set</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> , the mower need to find again easily the heading when wheel slip on big slope,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t>Test with your foot to change the mower heading in auto mowing mode</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Connecteur droit avec flèche 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1609725" y="4600575"/>
+          <a:ext cx="466725" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="ZoneTexte 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066925" y="5143499"/>
+          <a:ext cx="3600450" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Maxi stop duration to find the compass heading in auto mode (After this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> delay or 3 full rev  the compass is consider to be in error and  the mower continue to mow without compass in random mode)</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="ZoneTexte 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="6362700"/>
+          <a:ext cx="3600450" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Delay between 2 adjustement</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> of the Gyro to Compass This help a lot to reduce Gyro Drift</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="ZoneTexte 42"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="7639050"/>
+          <a:ext cx="3600450" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Drift maxi when the mower is in calibration in auto mode, If fail </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> the mower continue to mow without compass in random mode</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="ZoneTexte 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="8410575"/>
+          <a:ext cx="3600450" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Accel/Gyro</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> calibration (Only for GY88,GY87 Gy521)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>To do only once without moving the mower during less than  1 minute and check that the Pitch and roll are near 0 at the end, Check the result in the console.</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="ZoneTexte 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="9248775"/>
+          <a:ext cx="3600450" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>When mower roll to find the Compass heading </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, it's possible to reduce the speed ,</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="ZoneTexte 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="9858375"/>
+          <a:ext cx="3600450" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Compass</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> calibration click to start ,Move the mower arround all the axes and Check the result in the console.</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>When no new data you can click again to stop and save the value</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="ZoneTexte 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="10896600"/>
+          <a:ext cx="3600450" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Delete all the calibration data from RTC eeprom</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Connecteur droit avec flèche 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1476375" y="7967663"/>
+          <a:ext cx="666750" cy="1195387"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Connecteur droit avec flèche 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1590675" y="6467475"/>
+          <a:ext cx="495300" cy="195263"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Connecteur droit avec flèche 49"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1476375" y="5624512"/>
+          <a:ext cx="590550" cy="290513"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Connecteur droit avec flèche 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1828800" y="9491663"/>
+          <a:ext cx="304800" cy="576262"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Connecteur droit avec flèche 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1838325" y="8791575"/>
+          <a:ext cx="304800" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Connecteur droit avec flèche 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1790700" y="10296525"/>
+          <a:ext cx="352425" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Connecteur droit avec flèche 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1847850" y="10972800"/>
+          <a:ext cx="276225" cy="109538"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>80835</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Image 27" descr="odometry.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133352" y="180975"/>
+          <a:ext cx="1719133" cy="3533773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>554851</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="ZoneTexte 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2326501" y="228600"/>
+          <a:ext cx="1902599" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Actual Odometry</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+            <a:t> count</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>554851</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Connecteur droit avec flèche 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1638300" y="371475"/>
+          <a:ext cx="688201" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="ZoneTexte 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="647700"/>
+          <a:ext cx="2000250" cy="581026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Actual motor RPM (i need to remove from this menu )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Connecteur droit avec flèche 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1590675" y="938213"/>
+          <a:ext cx="695325" cy="233362"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Connecteur droit avec flèche 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1114425" y="2333626"/>
+          <a:ext cx="933450" cy="1233486"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="ZoneTexte 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="1352550"/>
+          <a:ext cx="2533650" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Ticks for one full wheel rev .</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Check the result with TEST ODO in main menu : 1 turn Wheel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="ZoneTexte 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="2266949"/>
+          <a:ext cx="2819400" cy="771526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Ticks per CM according the diameter of your wheel.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Check the result with TEST ODO in main menu : 3 mete</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rs Forward</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="ZoneTexte 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="3114674"/>
+          <a:ext cx="2838450" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>Distance between the 2 wheels</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Check the result with TEST ODO in main menu :Rotate 180Deg</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Connecteur droit avec flèche 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1571625" y="2038352"/>
+          <a:ext cx="476250" cy="614360"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Connecteur droit avec flèche 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1685925" y="1657351"/>
+          <a:ext cx="342900" cy="104774"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>280951</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>123786</xdr:rowOff>
@@ -3333,7 +6043,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5406,7 +8116,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6267,7 +8977,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7860,7 +10570,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9956,7 +12666,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11525,9 +14235,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E5:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A169" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="T326" sqref="T326"/>
     </sheetView>
   </sheetViews>
@@ -11553,7 +14316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11569,7 +14332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11595,7 +14358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11611,7 +14374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11630,14 +14393,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="N29:W43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="N162" sqref="N162"/>
     </sheetView>
   </sheetViews>
